--- a/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_xgb_o.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_xgb_o.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>936.7679996013642</v>
+        <v>148.944201040268</v>
       </c>
       <c r="C2">
-        <v>3.216248300683636</v>
+        <v>3.034028440714535</v>
       </c>
       <c r="D2">
-        <v>6.502808046340943</v>
+        <v>1.369939374923706</v>
       </c>
       <c r="E2">
-        <v>0.2117291969176635</v>
+        <v>0.1158927121938705</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1027.305926418304</v>
+        <v>283.8790384769439</v>
       </c>
       <c r="C3">
-        <v>354.3615738531845</v>
+        <v>2.734367804277977</v>
       </c>
       <c r="D3">
-        <v>3.096795797348022</v>
+        <v>1.450635671615601</v>
       </c>
       <c r="E3">
-        <v>0.6645273918110237</v>
+        <v>0.1336255080630165</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2595.355787611008</v>
+        <v>559.996348810196</v>
       </c>
       <c r="C4">
-        <v>374.0510559682173</v>
+        <v>3.956669089690096</v>
       </c>
       <c r="D4">
-        <v>15.14192605018616</v>
+        <v>1.46568398475647</v>
       </c>
       <c r="E4">
-        <v>0.441839237588072</v>
+        <v>0.205443587126135</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>565.2379202842712</v>
+        <v>147.9574033260346</v>
       </c>
       <c r="C5">
-        <v>416.1035283636527</v>
+        <v>2.581695021344341</v>
       </c>
       <c r="D5">
-        <v>8.322990322113037</v>
+        <v>1.499251413345337</v>
       </c>
       <c r="E5">
-        <v>5.457102017493904</v>
+        <v>0.1597782621201038</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2791.05840883255</v>
+        <v>281.1838232517242</v>
       </c>
       <c r="C6">
-        <v>12.57670474630266</v>
+        <v>2.492547233684098</v>
       </c>
       <c r="D6">
-        <v>14.94749794006348</v>
+        <v>1.407586908340454</v>
       </c>
       <c r="E6">
-        <v>0.9731212531581276</v>
+        <v>0.2662355769592323</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5542.912654733658</v>
+        <v>551.9489236831665</v>
       </c>
       <c r="C7">
-        <v>13.80223595820509</v>
+        <v>4.079591150128622</v>
       </c>
       <c r="D7">
-        <v>15.34240493774414</v>
+        <v>1.463583326339722</v>
       </c>
       <c r="E7">
-        <v>0.2031534680601064</v>
+        <v>0.07878320146472605</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1465.782723760605</v>
+        <v>144.8851979255676</v>
       </c>
       <c r="C8">
-        <v>5.5686225223957</v>
+        <v>0.3422911666555083</v>
       </c>
       <c r="D8">
-        <v>13.37711277008057</v>
+        <v>1.331832504272461</v>
       </c>
       <c r="E8">
-        <v>1.558864989068317</v>
+        <v>0.0588932411610801</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2851.620382785797</v>
+        <v>288.5357675075531</v>
       </c>
       <c r="C9">
-        <v>5.612602991421969</v>
+        <v>2.455207193314591</v>
       </c>
       <c r="D9">
-        <v>15.09926834106445</v>
+        <v>1.430933856964111</v>
       </c>
       <c r="E9">
-        <v>1.17011973541251</v>
+        <v>0.1580322018010149</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5589.35573310852</v>
+        <v>553.3909600734711</v>
       </c>
       <c r="C10">
-        <v>6.253840100570704</v>
+        <v>5.009806976928636</v>
       </c>
       <c r="D10">
-        <v>15.06109809875488</v>
+        <v>1.296262454986572</v>
       </c>
       <c r="E10">
-        <v>0.9760619930116324</v>
+        <v>0.08734082714920767</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2322.363467311859</v>
+        <v>229.5339345932007</v>
       </c>
       <c r="C11">
-        <v>9.847753479993873</v>
+        <v>2.905084350821983</v>
       </c>
       <c r="D11">
-        <v>14.92780628204346</v>
+        <v>1.409769201278686</v>
       </c>
       <c r="E11">
-        <v>0.2519631007500741</v>
+        <v>0.1727590792253888</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4619.775969076157</v>
+        <v>444.119971036911</v>
       </c>
       <c r="C12">
-        <v>8.994282500274048</v>
+        <v>1.608215852750877</v>
       </c>
       <c r="D12">
-        <v>16.12397422790527</v>
+        <v>1.566493463516235</v>
       </c>
       <c r="E12">
-        <v>1.04421088780092</v>
+        <v>0.2785014000709363</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9126.208121109008</v>
+        <v>880.7481705665589</v>
       </c>
       <c r="C13">
-        <v>20.19900948205452</v>
+        <v>1.313838911703214</v>
       </c>
       <c r="D13">
-        <v>15.28466472625732</v>
+        <v>1.349617719650269</v>
       </c>
       <c r="E13">
-        <v>0.3351752874523057</v>
+        <v>0.1104392556565589</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2384.265683746338</v>
+        <v>226.0651173114776</v>
       </c>
       <c r="C14">
-        <v>42.90525079860293</v>
+        <v>1.609629198597352</v>
       </c>
       <c r="D14">
-        <v>15.31391973495483</v>
+        <v>1.272902202606201</v>
       </c>
       <c r="E14">
-        <v>0.7513148419477784</v>
+        <v>0.03110624842315952</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4601.691743707657</v>
+        <v>445.571532535553</v>
       </c>
       <c r="C15">
-        <v>10.96994694028389</v>
+        <v>1.313427412940254</v>
       </c>
       <c r="D15">
-        <v>14.9815541267395</v>
+        <v>1.28677225112915</v>
       </c>
       <c r="E15">
-        <v>0.5208075666959242</v>
+        <v>0.03368199035833578</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6953.107333946228</v>
+        <v>885.5678065299987</v>
       </c>
       <c r="C16">
-        <v>817.1813902511676</v>
+        <v>5.325063331153295</v>
       </c>
       <c r="D16">
-        <v>4.624995851516724</v>
+        <v>1.398493957519531</v>
       </c>
       <c r="E16">
-        <v>2.054314855645016</v>
+        <v>0.1520927508007015</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2099.84003329277</v>
+        <v>230.5094635009766</v>
       </c>
       <c r="C17">
-        <v>285.390112497818</v>
+        <v>1.78845432114904</v>
       </c>
       <c r="D17">
-        <v>12.87110600471497</v>
+        <v>1.302423524856567</v>
       </c>
       <c r="E17">
-        <v>1.756738633492392</v>
+        <v>0.04198255267955443</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1804.645591211319</v>
+        <v>447.0289479255676</v>
       </c>
       <c r="C18">
-        <v>455.6004239106171</v>
+        <v>3.221131304256178</v>
       </c>
       <c r="D18">
-        <v>5.15437970161438</v>
+        <v>1.35668568611145</v>
       </c>
       <c r="E18">
-        <v>4.773615030587441</v>
+        <v>0.1222374296409884</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6756.342031145095</v>
+        <v>719.145511007309</v>
       </c>
       <c r="C19">
-        <v>422.6582352115752</v>
+        <v>24.68404226230715</v>
       </c>
       <c r="D19">
-        <v>13.25540347099304</v>
+        <v>0.8876883029937744</v>
       </c>
       <c r="E19">
-        <v>0.6712747324365491</v>
+        <v>0.1238764180127826</v>
       </c>
       <c r="F19">
         <v>2</v>
